--- a/Evaluate/脚本信息.xlsx
+++ b/Evaluate/脚本信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12465"/>
+    <workbookView windowWidth="18645" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="142">
   <si>
     <t>脚本名称</t>
   </si>
@@ -422,6 +422,30 @@
   </si>
   <si>
     <t>评分细则4.2.4</t>
+  </si>
+  <si>
+    <t>ALC_1-1</t>
+  </si>
+  <si>
+    <t>无干扰车变道</t>
+  </si>
+  <si>
+    <t>初始状态时，自车在至少单向 2车道的直线道路上以初始速度 v0匀速行驶，并开启车道居中保持功能。5s后，触发 ALC功能向相邻右车道变道</t>
+  </si>
+  <si>
+    <t>评分细则4.1.1、评分细则4.1.2</t>
+  </si>
+  <si>
+    <t>ALC_1-2</t>
+  </si>
+  <si>
+    <t>有干扰车变道</t>
+  </si>
+  <si>
+    <t>初始状态时，自车至少单向 2车道的直线道路上以初始速度 v0匀速行驶，并开启车道居中保持功能。干扰车辆在相邻左车道以相同速度 v0匀速行驶。5s后，自车触发 ALC功能向干扰车车道方向变道</t>
+  </si>
+  <si>
+    <t>评分细则4.2.1、评分细则4.2.2</t>
   </si>
 </sst>
 </file>
@@ -429,12 +453,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,17 +475,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,6 +506,89 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -481,76 +597,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,37 +618,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -617,187 +634,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,6 +845,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -835,17 +878,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -865,22 +902,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,170 +940,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1080,6 +1097,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1404,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1937,6 +1957,34 @@
         <v>133</v>
       </c>
     </row>
+    <row r="38" ht="28.5" spans="1:4">
+      <c r="A38" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" ht="42.75" spans="1:4">
+      <c r="A39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
